--- a/Programming Basics-C#/ProgrammingNotes.xlsx
+++ b/Programming Basics-C#/ProgrammingNotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\Programming Basics-C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EC882-649B-40BE-A2DA-50A3FA5625D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E30D4D1-694B-40DF-B5C3-F5E58ECC3BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21240" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="357">
   <si>
     <t>SELECT</t>
   </si>
@@ -1686,6 +1686,207 @@
   </si>
   <si>
     <t>print(f"Hello, my name is {name}. I'm {yrs) old.")</t>
+  </si>
+  <si>
+    <t>static void MethodName(parameter)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>static void PrintText(string text) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Console.WriteLine(text);</t>
+  </si>
+  <si>
+    <t>method is called by Name() - no returned values</t>
+  </si>
+  <si>
+    <t>static (type) MethodName(type)</t>
+  </si>
+  <si>
+    <t>method can "return" value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     return area;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     int area = side1 * side2;</t>
+  </si>
+  <si>
+    <t>static int PrintArea(int side1, int side2)               - PrintArea contains area value</t>
+  </si>
+  <si>
+    <t>METHODS</t>
+  </si>
+  <si>
+    <t>ARRAYS</t>
+  </si>
+  <si>
+    <t>contains sequence of elements</t>
+  </si>
+  <si>
+    <t>each element has its own position(index) e.g  - 5 elements (0,1,2,3,4 positions)</t>
+  </si>
+  <si>
+    <t>Array.Lenght - variable that is equal to the length of the array</t>
+  </si>
+  <si>
+    <t>all emenents must be same type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start from 0 to length-1 (to find the length) </t>
+  </si>
+  <si>
+    <t>int[] numbers = new int[10];</t>
+  </si>
+  <si>
+    <t>array number - contains 10 elements</t>
+  </si>
+  <si>
+    <t>all elements are initially == 0   -  can be assigned with value</t>
+  </si>
+  <si>
+    <t>e.g numbers[2] = 43;          - now the 3rd element is equal to 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Monday",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Tuesday",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Thursday", etc, etc</t>
+  </si>
+  <si>
+    <t>string[] days =                                         array with defined elements</t>
+  </si>
+  <si>
+    <t>string[] text = new string[7];</t>
+  </si>
+  <si>
+    <t>int[] name = Console.ReadLine().Split().Select(int.Parse).ToArray();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         .Split()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         .Select(type.Parse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         .ToArray();</t>
+  </si>
+  <si>
+    <t>type[] name = Console.ReadLine()</t>
+  </si>
+  <si>
+    <t>CW (string.Join(" ", variable));</t>
+  </si>
+  <si>
+    <t>writes variable and separates them with space or other</t>
+  </si>
+  <si>
+    <t>string.Join(",  " etc, variable);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used for Read-only, iterates trough all elements </t>
+  </si>
+  <si>
+    <t>foreach (var item in collection)</t>
+  </si>
+  <si>
+    <t>foreach (int number in numbers)</t>
+  </si>
+  <si>
+    <t>FOREACH loop</t>
+  </si>
+  <si>
+    <t>LISTS</t>
+  </si>
+  <si>
+    <t>holds a list of elements of the same type</t>
+  </si>
+  <si>
+    <t>List&lt;type&gt; variable = new List&lt;type&gt;();</t>
+  </si>
+  <si>
+    <t>list is created and is empty initially, elements will be added</t>
+  </si>
+  <si>
+    <t>variable.Add("Something");</t>
+  </si>
+  <si>
+    <t>names.Add("George");     numbers.Add(25);</t>
+  </si>
+  <si>
+    <t>list&lt;string&gt; names = new() {"George", "Emo", "Peter", etc"};</t>
+  </si>
+  <si>
+    <t>(creates a string list names with added elements directly)</t>
+  </si>
+  <si>
+    <t>Lists OPERATIONS</t>
+  </si>
+  <si>
+    <t>variable.Count</t>
+  </si>
+  <si>
+    <t>shows how many are the elements in a list</t>
+  </si>
+  <si>
+    <t>variable.Remove(element)</t>
+  </si>
+  <si>
+    <t>removes element from a list (returns true/false)</t>
+  </si>
+  <si>
+    <t>variable.Insert(index, element)</t>
+  </si>
+  <si>
+    <t>adds element to a specific position/index</t>
+  </si>
+  <si>
+    <t>string.Insert([2], "George");      - adds string George to 3rd position in list</t>
+  </si>
+  <si>
+    <t>variable.Contains(element)</t>
+  </si>
+  <si>
+    <t>shows if element is contained in the list</t>
+  </si>
+  <si>
+    <t>variable.Sort()</t>
+  </si>
+  <si>
+    <t>sorts by ascending order (smallest to largest)</t>
+  </si>
+  <si>
+    <t>NOTE: When element is removed, the ones after it will move one position forward</t>
+  </si>
+  <si>
+    <t>e.g list with 5 elements, if 2nd element is removed, the 3rd element will move to the same place as 2nd</t>
+  </si>
+  <si>
+    <t>Insert into specific position will move the others one position down</t>
+  </si>
+  <si>
+    <t>adds a element into the list (at the last position)</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt; numbers = Console.ReadLine()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .Split()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .Select(int.Parse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .ToList();</t>
   </si>
 </sst>
 </file>
@@ -2089,6 +2290,20 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2111,20 +2326,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2424,7 +2625,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5955FE27-2D9D-4CC8-B375-0380321E86E3}" name="Таблица4" displayName="Таблица4" ref="A1:D351" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5955FE27-2D9D-4CC8-B375-0380321E86E3}" name="Таблица4" displayName="Таблица4" ref="A1:D351" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1AC961D6-1DEA-4C09-AD39-88DD62C6C1AF}" name="command"/>
     <tableColumn id="2" xr3:uid="{57B56C8E-2764-43D4-AE2F-D1AADB806298}" name="meaning"/>
@@ -3522,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2E049-E1BB-4C51-B7AA-1C5399BF770F}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,6 +4128,324 @@
         <v>268</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>316</v>
+      </c>
+      <c r="C57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>329</v>
+      </c>
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>331</v>
+      </c>
+      <c r="C75" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>338</v>
+      </c>
+      <c r="B80" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>342</v>
+      </c>
+      <c r="B82" t="s">
+        <v>343</v>
+      </c>
+      <c r="C82" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>345</v>
+      </c>
+      <c r="B83" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3939,8 +4458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D1AA8-63CF-4686-8F84-0C5EA0F44EE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Programming Basics-C#/ProgrammingNotes.xlsx
+++ b/Programming Basics-C#/ProgrammingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\Programming Basics-C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E30D4D1-694B-40DF-B5C3-F5E58ECC3BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28B428-ABD4-40C8-BC0D-8AFC36FDB28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,9 +1349,6 @@
     <t>Parse</t>
   </si>
   <si>
-    <t>converts number to text</t>
-  </si>
-  <si>
     <t>int input = int.Parse(Console.ReadLine());</t>
   </si>
   <si>
@@ -1887,6 +1884,9 @@
   </si>
   <si>
     <t xml:space="preserve">    .ToList();</t>
+  </si>
+  <si>
+    <t>converts string to the given type</t>
   </si>
 </sst>
 </file>
@@ -3725,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2E049-E1BB-4C51-B7AA-1C5399BF770F}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,21 +3739,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>200</v>
       </c>
       <c r="C1" t="s">
         <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>167</v>
@@ -3767,7 +3767,7 @@
         <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,10 +3778,10 @@
         <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,13 +3789,13 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,32 +3817,32 @@
         <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
         <v>180</v>
       </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
         <v>183</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>184</v>
       </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3850,13 +3850,13 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
         <v>186</v>
       </c>
-      <c r="C10" t="s">
-        <v>187</v>
-      </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,579 +3871,579 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
         <v>196</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
         <v>222</v>
       </c>
-      <c r="B16" t="s">
-        <v>223</v>
-      </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
         <v>226</v>
       </c>
-      <c r="B25" t="s">
-        <v>227</v>
-      </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
         <v>231</v>
       </c>
-      <c r="B27" t="s">
-        <v>232</v>
-      </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" t="s">
         <v>237</v>
       </c>
-      <c r="B28" t="s">
-        <v>238</v>
-      </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
         <v>239</v>
-      </c>
-      <c r="B29" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" t="s">
         <v>241</v>
-      </c>
-      <c r="B30" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" t="s">
         <v>243</v>
-      </c>
-      <c r="B31" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" t="s">
         <v>256</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>257</v>
-      </c>
-      <c r="C32" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" t="s">
         <v>247</v>
       </c>
-      <c r="B33" t="s">
-        <v>248</v>
-      </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" t="s">
         <v>249</v>
       </c>
-      <c r="B34" t="s">
-        <v>250</v>
-      </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" t="s">
         <v>261</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>262</v>
-      </c>
-      <c r="C36" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" t="s">
         <v>266</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>267</v>
-      </c>
-      <c r="C37" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" t="s">
         <v>296</v>
       </c>
-      <c r="B45" t="s">
-        <v>297</v>
-      </c>
       <c r="C45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" t="s">
         <v>302</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>303</v>
-      </c>
-      <c r="C50" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" t="s">
         <v>308</v>
-      </c>
-      <c r="B54" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>321</v>
+      </c>
+      <c r="B67" t="s">
         <v>322</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>323</v>
-      </c>
-      <c r="C67" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" t="s">
         <v>326</v>
-      </c>
-      <c r="C70" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
         <v>329</v>
       </c>
-      <c r="B74" t="s">
-        <v>330</v>
-      </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" t="s">
+        <v>351</v>
+      </c>
+      <c r="C79" t="s">
         <v>333</v>
-      </c>
-      <c r="B79" t="s">
-        <v>352</v>
-      </c>
-      <c r="C79" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" t="s">
         <v>338</v>
-      </c>
-      <c r="B80" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>339</v>
+      </c>
+      <c r="B81" t="s">
         <v>340</v>
-      </c>
-      <c r="B81" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>341</v>
+      </c>
+      <c r="B82" t="s">
         <v>342</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>343</v>
-      </c>
-      <c r="C82" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" t="s">
         <v>345</v>
-      </c>
-      <c r="B83" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>346</v>
+      </c>
+      <c r="B84" t="s">
         <v>347</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>348</v>
-      </c>
-      <c r="C84" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4472,88 +4472,88 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>163</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" t="s">
         <v>270</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>271</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>272</v>
-      </c>
-      <c r="D2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
         <v>278</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>279</v>
       </c>
-      <c r="C3" t="s">
-        <v>280</v>
-      </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="s">
         <v>281</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>282</v>
       </c>
-      <c r="C4" t="s">
-        <v>283</v>
-      </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
         <v>284</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>285</v>
-      </c>
-      <c r="C5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" t="s">
         <v>287</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>288</v>
       </c>
-      <c r="C7" t="s">
-        <v>289</v>
-      </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/Programming Basics-C#/ProgrammingNotes.xlsx
+++ b/Programming Basics-C#/ProgrammingNotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\Programming Basics-C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28B428-ABD4-40C8-BC0D-8AFC36FDB28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF5974-E45D-4F09-8BB3-CA0913A6B33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="394">
   <si>
     <t>SELECT</t>
   </si>
@@ -1887,6 +1887,117 @@
   </si>
   <si>
     <t>converts string to the given type</t>
+  </si>
+  <si>
+    <t>STRING specifics</t>
+  </si>
+  <si>
+    <t>char[] charArray = var.ToCharArray()</t>
+  </si>
+  <si>
+    <t>converting string into char array</t>
+  </si>
+  <si>
+    <t>string text = "text"</t>
+  </si>
+  <si>
+    <t>char[] charArray = text.ToCharArray() // ['t', 'e', 'x', 't']</t>
+  </si>
+  <si>
+    <t>concatenates strings method</t>
+  </si>
+  <si>
+    <t>string greet = "hello, "    string name = "George"</t>
+  </si>
+  <si>
+    <t>string result = string.Contact( greet, name)  // Hello, George</t>
+  </si>
+  <si>
+    <t>string.Contact()</t>
+  </si>
+  <si>
+    <t>IndexOf()</t>
+  </si>
+  <si>
+    <t>returns the first match index or -1</t>
+  </si>
+  <si>
+    <t>string fruits = "banana, apple, kiwi"</t>
+  </si>
+  <si>
+    <t>(fruits.IndexOf("banana")) // 0    first letter b is on index# 0</t>
+  </si>
+  <si>
+    <t>LastIndexOf()</t>
+  </si>
+  <si>
+    <t>returns last match index occurance</t>
+  </si>
+  <si>
+    <t>string fruits = "banana, apple, kiwi, banana, apple"</t>
+  </si>
+  <si>
+    <t>(fruits.IndexOf("banana")) //21    first letter b is on index# 0 from back to forward</t>
+  </si>
+  <si>
+    <t>Contains()</t>
+  </si>
+  <si>
+    <t>bool. Finds a string if is contained in a string var</t>
+  </si>
+  <si>
+    <t>string text = "I love fruits"</t>
+  </si>
+  <si>
+    <t>(text.Contains("fruits"))  - will return True as the string contains the word</t>
+  </si>
+  <si>
+    <t>Substring(int startIndex, int length)</t>
+  </si>
+  <si>
+    <t>string card = "10C"</t>
+  </si>
+  <si>
+    <t>string power = card.Substring(0, 2)  // 10</t>
+  </si>
+  <si>
+    <t>Substring(int startIndex)</t>
+  </si>
+  <si>
+    <t>string name = "My name is John"   (name starts at the 11th index)</t>
+  </si>
+  <si>
+    <t>string exactName = string.Substring(11)  // returns John</t>
+  </si>
+  <si>
+    <t>Replace(match, replacement)</t>
+  </si>
+  <si>
+    <t>replaces a matched string with a new one</t>
+  </si>
+  <si>
+    <t>.Replace(ggajev1@abv.bg, gadzhev@abv.bg) // new string will be gadzhev@abv.bg</t>
+  </si>
+  <si>
+    <t>replacement text should be same string length</t>
+  </si>
+  <si>
+    <t>StringBuilder sb = new StringBuilder()</t>
+  </si>
+  <si>
+    <t>build/modify strings class</t>
+  </si>
+  <si>
+    <t>sb.Append</t>
+  </si>
+  <si>
+    <t>Stopwatch sw = new Stopwatch()</t>
+  </si>
+  <si>
+    <t>sw.Start()</t>
+  </si>
+  <si>
+    <t>(sw.ElapsedMilliSeconds)</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2397,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -3723,17 +3834,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2E049-E1BB-4C51-B7AA-1C5399BF770F}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4444,6 +4555,161 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>358</v>
+      </c>
+      <c r="B95" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>365</v>
+      </c>
+      <c r="B98" t="s">
+        <v>362</v>
+      </c>
+      <c r="C98" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B104" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>374</v>
+      </c>
+      <c r="B107" t="s">
+        <v>375</v>
+      </c>
+      <c r="C107" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>378</v>
+      </c>
+      <c r="C110" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>381</v>
+      </c>
+      <c r="C113" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>384</v>
+      </c>
+      <c r="B116" t="s">
+        <v>385</v>
+      </c>
+      <c r="C116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>388</v>
+      </c>
+      <c r="B120" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
